--- a/기획/테이블/캐릭터/NPC/NPC 상호작용 마무리 작업 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC/NPC 상호작용 마무리 작업 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\NPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F435ED29-D2D1-4273-B61E-DD08C9B285AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6050D05A-DBD1-4AF0-8D1C-C322F192A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="4005" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="2415" windowWidth="20205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC 상호작용 마무리 작업 테이블" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -415,10 +415,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>513</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/기획/테이블/캐릭터/NPC/NPC 상호작용 마무리 작업 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC/NPC 상호작용 마무리 작업 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\NPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6050D05A-DBD1-4AF0-8D1C-C322F192A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C09D36-C62F-4F0A-8E8D-EB19242FB7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2415" windowWidth="20205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="2850" windowWidth="20205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC 상호작용 마무리 작업 테이블" sheetId="1" r:id="rId1"/>
